--- a/builtins/data/helpdoc/DND/10_荒洲探索者指南EGW.xlsx
+++ b/builtins/data/helpdoc/DND/10_荒洲探索者指南EGW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EGW法术" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>5e 暗黑星辰</t>
+    <t>暗黑星辰</t>
   </si>
   <si>
     <t/>
@@ -532,7 +532,7 @@
     <t>#EGW</t>
   </si>
   <si>
-    <t>5e 命运宠儿</t>
+    <t>命运宠儿</t>
   </si>
   <si>
     <t>命运宠儿 Fortune's Favor(EGW)
@@ -547,7 +547,7 @@
 升环施法效应：当你使用3环或更高法术位施放本法术时，使用的法术位每比2环高一环，就可以指定一个额外的生物。</t>
   </si>
   <si>
-    <t>5e 灵敏之赐</t>
+    <t>灵敏之赐</t>
   </si>
   <si>
     <t>灵敏之赐 Gift of Alacrity(EGW)
@@ -560,7 +560,7 @@
 你触碰一个自愿生物，在法术持续时间内，他的先攻掷骰中可以加入一个额外的d8。</t>
   </si>
   <si>
-    <t>5e 重力分裂</t>
+    <t>重力分裂</t>
   </si>
   <si>
     <t>重力分裂 Gravity Fissure(EGW)
@@ -575,7 +575,7 @@
 升环施法效应：使用7环或更高法术位施放本法术时，你使用的法术位每比6环高一环，本法术的伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 引力裂沟</t>
+    <t>引力裂沟</t>
   </si>
   <si>
     <t>引力裂沟 Gravity Sinkhole(EGW)
@@ -589,7 +589,7 @@
 升环施法效应：使用5环或更高法术位施放本法术时，你使用的法术位每比4环高一环，本法术的伤害就增加1d10。</t>
   </si>
   <si>
-    <t>5e 不动物件</t>
+    <t>不动物件</t>
   </si>
   <si>
     <t>不动物件 Immovable Object(EGW)
@@ -604,7 +604,7 @@
 升环施法效应：若你使用4环或5环法术位施放本法术，使该物件移动的检定DC增加5，并且它能够承载8000磅重的负载并持续24小时。如果你用6环或者更高环的法术位施放本法术，那么使该物件移动的检定DC增加10，并且它能够承载20000磅重的负载并一直持续到法术被解除。</t>
   </si>
   <si>
-    <t>5e 扩大重力</t>
+    <t>扩大重力</t>
   </si>
   <si>
     <t>扩大重力 Magnify Gravity(EGW)
@@ -620,7 +620,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，本法术的伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 脉冲波动</t>
+    <t>脉冲波动</t>
   </si>
   <si>
     <t>脉冲波动 Pulse Wave(EGW)
@@ -635,7 +635,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，本法术的伤害就增加1d6，并使推拉的距离增加5尺。</t>
   </si>
   <si>
-    <t>5e 饕餮虚空</t>
+    <t>饕餮虚空</t>
   </si>
   <si>
     <t>饕餮虚空 Ravenous Void(EGW)
@@ -649,7 +649,7 @@
 当一个生物在力场的100尺范围内开始其回合时，其必须进行一个力量豁免，若失败则将被直直拉向力场的中心，并在距离力场中心最近的未被占据的空间停止。一个在当前回合内第一次进入力场的生物或在力场内开始其回合的生物会受到5d10点力场伤害并且被束缚，直到其离开力场范围。若力场位于空中，那么被束缚的生物将会在力场中悬浮。一个生物能以其动作进行一个对抗你的法术豁免DC的力量检定，若成功则能解除其自己或者另一个在其触及范围内的力场内的生物的束缚状态。若一个生物的HP被本法术降低至0，他与他身上携带的所有非魔法物件都会被湮灭。</t>
   </si>
   <si>
-    <t>5e 崩坏现实</t>
+    <t>崩坏现实</t>
   </si>
   <si>
     <t>崩坏现实 Reality Break(EGW)
@@ -669,7 +669,7 @@
 9–10   暗虚之冻 Chill of the Dark Void。目标受到12d10点冷冻伤害并且目盲到本回合结束。</t>
   </si>
   <si>
-    <t>5e 削弱芒刺</t>
+    <t>削弱芒刺</t>
   </si>
   <si>
     <t>削弱芒刺 Sapping Sting(EGW)
@@ -683,7 +683,7 @@
 第5级时，本法术的伤害增加1d4（变为2d4）。11级时再增加1d4（变为3d4），17级时再增加1d4（变为4d4）。</t>
   </si>
   <si>
-    <t>5e 时流刹转</t>
+    <t>时流刹转</t>
   </si>
   <si>
     <t>时流刹转 Temporal Shunt(EGW)
@@ -697,7 +697,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你使用的法术位每比5环高一环，你就可以多指定一个目标。 所有的目标都需要在互相的30尺内。</t>
   </si>
   <si>
-    <t>5e 系结本源</t>
+    <t>系结本源</t>
   </si>
   <si>
     <t>系结本源 Tether Essence(EGW)
@@ -710,7 +710,7 @@
 两个施法距离内的你能看见的生物必须进行一次体质豁免，若两者在30尺内，则他们的豁免检定具有劣势。每个生物都能自愿放弃豁免。若两者中有一个豁免成功了，那么法术没有效果。若两人豁免均失败了，那么他们便会在法术持续时间内魔法般地被连接在一起，无论两人间距多少。若其中一人受到伤害，另外一人也会受到等额的伤害。若其中一人恢复了生命值，另外一人也会恢复等额的生命值。如果被系结的双方中任意一方的HP减少到了0，那么本法术结束。本法术在任意一方身上结束时，另外一方的法术也结束。</t>
   </si>
   <si>
-    <t>5e 时光蹂躏</t>
+    <t>时光蹂躏</t>
   </si>
   <si>
     <t>时光蹂躏 Time Ravage(EGW)
@@ -723,7 +723,7 @@
 你选定一个施法距离内的目标，使他的身体形态受到飞速衰老的破坏。目标必须进行一个体质豁免并在豁免失败时受到12d10点黯蚀伤害, 或在豁免成功时只受到一半的伤害。 若其豁免失败，目标还会快速老化至离老死只有三十天的时间点。 在这个年龄段, 目标在攻击检定上, 属性检定上与豁免检定上承受劣势，其步行速度也减少一半.。只有祈愿术Wish或以9环法术位施放的高等复原术Greater Restoration才能使这些效果消除并使其恢复原先的年龄。</t>
   </si>
   <si>
-    <t>5e 魔袋术</t>
+    <t>魔袋术</t>
   </si>
   <si>
     <t>魔袋术 Wristpocket(EGW)
@@ -737,7 +737,7 @@
 到法术结束为止，你可以用你的动作将物件召唤到你空余的手中，你也可以用一个动作将该物件返还至异次元空间处。 到法术结束时仍然存在在异次元空间的物品会出现在你的位置中，你的脚下。</t>
   </si>
   <si>
-    <t>5e 秘迹魔法于非秘迹使</t>
+    <t>秘迹魔法于非秘迹使</t>
   </si>
   <si>
     <t>秘迹魔法于非秘迹使
@@ -2470,16 +2470,16 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.3611111111111" style="5" customWidth="1"/>
-    <col min="3" max="3" width="93.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.3636363636364" style="5" customWidth="1"/>
+    <col min="3" max="3" width="93.2181818181818" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3363636363636" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2806,12 +2806,12 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.1851851851852" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.81481481481481" style="2"/>
-    <col min="3" max="3" width="138.685185185185" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="2"/>
+    <col min="1" max="1" width="19.1818181818182" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.81818181818182" style="2"/>
+    <col min="3" max="3" width="138.681818181818" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
@@ -2842,6 +2842,8 @@
       <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D2"/>
+      <c r="E2"/>
       <c r="F2" t="s">
         <v>10</v>
       </c>
@@ -2854,6 +2856,8 @@
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>10</v>
       </c>
@@ -2866,6 +2870,8 @@
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="s">
         <v>10</v>
       </c>
@@ -2878,6 +2884,8 @@
       <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" t="s">
         <v>10</v>
       </c>
@@ -2913,12 +2921,12 @@
       <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27.1481481481481" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.81481481481481" style="2"/>
-    <col min="3" max="3" width="138.666666666667" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="2"/>
+    <col min="1" max="1" width="27.1454545454545" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.81818181818182" style="2"/>
+    <col min="3" max="3" width="138.663636363636" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
@@ -3094,15 +3102,15 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.9074074074074" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.81481481481481" style="2"/>
-    <col min="3" max="3" width="151.777777777778" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="2"/>
+    <col min="1" max="1" width="14.9090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.81818181818182" style="2"/>
+    <col min="3" max="3" width="151.781818181818" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:6">
+    <row r="1" customFormat="1" ht="14" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3122,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="14.4" spans="1:6">
+    <row r="2" customFormat="1" ht="14" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -3134,7 +3142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="14.4" spans="1:6">
+    <row r="3" customFormat="1" ht="14" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -3146,7 +3154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="14.4" spans="1:6">
+    <row r="4" customFormat="1" ht="14" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -3158,7 +3166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="14.4" spans="1:6">
+    <row r="5" customFormat="1" ht="14" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -3170,7 +3178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="14.4" spans="1:6">
+    <row r="6" customFormat="1" ht="14" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -3182,7 +3190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.4" spans="1:6">
+    <row r="7" customFormat="1" ht="14" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -3194,7 +3202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.4" spans="1:6">
+    <row r="8" customFormat="1" ht="14" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -3206,7 +3214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.4" spans="1:6">
+    <row r="9" customFormat="1" ht="14" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3218,7 +3226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.4" spans="1:6">
+    <row r="10" customFormat="1" ht="14" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -3230,7 +3238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="14.4" spans="1:6">
+    <row r="11" customFormat="1" ht="14" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -3242,7 +3250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="14.4" spans="1:6">
+    <row r="12" customFormat="1" ht="14" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
@@ -3254,7 +3262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.4" spans="1:6">
+    <row r="13" customFormat="1" ht="14" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -3266,7 +3274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="14.4" spans="1:6">
+    <row r="14" customFormat="1" ht="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
@@ -3278,7 +3286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.4" spans="1:6">
+    <row r="15" customFormat="1" ht="14" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -3290,7 +3298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.4" spans="1:6">
+    <row r="16" customFormat="1" ht="14" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.4" spans="1:6">
+    <row r="17" customFormat="1" ht="14" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -3314,7 +3322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.4" spans="1:6">
+    <row r="18" customFormat="1" ht="14" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
@@ -3326,7 +3334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.4" spans="1:6">
+    <row r="19" customFormat="1" ht="14" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -3338,7 +3346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.4" spans="1:6">
+    <row r="20" customFormat="1" ht="14" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
@@ -3350,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="14.4" spans="1:6">
+    <row r="21" customFormat="1" ht="14" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -3362,7 +3370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="14.4" spans="1:6">
+    <row r="22" customFormat="1" ht="14" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>111</v>
       </c>
@@ -3374,7 +3382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.4" spans="1:6">
+    <row r="23" customFormat="1" ht="14" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>113</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.4" spans="1:6">
+    <row r="24" customFormat="1" ht="14" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
@@ -3398,7 +3406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="14.4" spans="1:6">
+    <row r="25" customFormat="1" ht="14" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>117</v>
       </c>
@@ -3410,7 +3418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.4" spans="1:6">
+    <row r="26" customFormat="1" ht="14" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>119</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.4" spans="1:6">
+    <row r="27" customFormat="1" ht="14" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -3434,7 +3442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.4" spans="1:6">
+    <row r="28" customFormat="1" ht="14" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>123</v>
       </c>
@@ -3446,7 +3454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.4" spans="1:6">
+    <row r="29" customFormat="1" ht="14" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
@@ -3458,7 +3466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="14.4" spans="1:6">
+    <row r="30" customFormat="1" ht="14" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
@@ -3470,17 +3478,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="14.4" spans="1:3">
+    <row r="31" customFormat="1" ht="14" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" customFormat="1" ht="14.4" spans="1:3">
+    <row r="32" customFormat="1" ht="14" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" customFormat="1" ht="14.4" spans="1:3">
+    <row r="33" customFormat="1" ht="14" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3497,14 +3505,14 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="67.3611111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="67.3636363636364" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
